--- a/medicine/Enfance/Joséphine-Blanche_Bouchet/Joséphine-Blanche_Bouchet.xlsx
+++ b/medicine/Enfance/Joséphine-Blanche_Bouchet/Joséphine-Blanche_Bouchet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9phine-Blanche_Bouchet</t>
+          <t>Joséphine-Blanche_Bouchet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joséphine-Blanche Bouchet, connue sous les noms de plume de Mme J. Colomb ou Mme Louis-Casimir Colomb, née le 4 février 1833 à La Roche-sur-Yon (Vendée) et morte le 17 septembre 1892 à Villerville (Calvados) est une femme de lettres française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9phine-Blanche_Bouchet</t>
+          <t>Joséphine-Blanche_Bouchet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née de de Louis (1785-1866), docteur en médecine et de Marie Anne Julienne Perrine Langlais (1790-1859), Joséphine-Blanche Bouchet épouse l'universitaire, illustrateur et écrivain Louis-Casimir Colomb (1834-1890) le 14 novembre 1859. Elle signe ses ouvrages « Mme J. Colomb » ou « Mme Louis-Casimir Colomb ». Ses livres à destination de la jeunesse sont édités dans la collection « Bibliothèque des écoles et des familles » des Éditions Hachette à Paris. Au lieu de présenter les habituels orphelins ou adolescents malheureux des ouvrages de fiction juvénile de la fin du XIXe siècle, Colomb a construit des personnages avec un esprit en propre qui remettent souvent en question l’autorité des adultes avec intelligence.
-On lui doit en outre une version versifiée des Béatitudes sur une musique de César Franck[1].
+On lui doit en outre une version versifiée des Béatitudes sur une musique de César Franck.
 L’Académie française lui décerne le prix Montyon en 1875 et le prix Jules-Favre en 1893.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jos%C3%A9phine-Blanche_Bouchet</t>
+          <t>Joséphine-Blanche_Bouchet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Fille de Carilès / Le Petit Prince Ulrich / Nedji la bohémienne / La Bonne Mitche, illustré par Adrien Marie, Hachette, 1874.
@@ -590,15 +606,15 @@
 La Fille des bohémiens, [S.d.], avec 112 dessins de Stanislaw Rejchan.
 Franchise : Aimery au clair visage : roman de chevalerie, illustré par C. Monnot, vignettes sur bois de C. Delort, [S.d.].
 L'Héritière de Vauclain, [S.d.].
-Histoires de bêtes, [1890].
+Histoires de bêtes, .
 Histoires et proverbes, [S.d.].
 Histoire morale et instructive de Matou, [S.d.].
-Les Infortunes de Chouchou, [1881].
+Les Infortunes de Chouchou, .
 Maître Pizzoni / L'Élève de Leoni / Le Chanteur florentin / Tante Gertrude / Une Signature / Chez Grand'Père, [S.d.].
 Mirliflor / Blanche-Écume (Les malheurs de Bébelle), [S.d.] .
 L'Ours de neige, [S.d.].
 Petites Nouvelles, [S.d.].
-Pieter Vandael, [1883].
+Pieter Vandael, .
 Pour les faire mentir, [S.d.].
 Le Prix de Gisèle, [S.d.].
 Récits et historiettes, [S.d.].
@@ -606,9 +622,44 @@
 Souffre-Douleur, [S.d.].
 Sur les toits, [S.d.].
 La Trouvaille de Jeannette / La Victime de Ravageot, [S.d.].
-Une nichée de pinsons, [1895].
-Traductions d’ouvrages d’auteurs italiens
-De ma fenêtre, roman de Grazia Pierantoni-Mancini.
+Une nichée de pinsons, .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joséphine-Blanche_Bouchet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jos%C3%A9phine-Blanche_Bouchet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traductions d’ouvrages d’auteurs italiens</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>De ma fenêtre, roman de Grazia Pierantoni-Mancini.
 Constantinople, par Edmondo De Amicis.
 L'Espagne, par Edmondo de Amicis.
 Souvenirs de Paris et de Londres, par Edmondo De Amicis.</t>
